--- a/REGULAR/RE-ENCODE/re encode/New folder/DIMAPILIS ARIEL.xlsx
+++ b/REGULAR/RE-ENCODE/re encode/New folder/DIMAPILIS ARIEL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CITY MARKET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\re encode\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
   <si>
     <t>PERIOD</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>UT(0-3-54)</t>
+  </si>
+  <si>
+    <t>8/7,8/2023</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1022,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K105" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K106" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1348,12 +1351,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K105"/>
+  <dimension ref="A2:K106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A89" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A92" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="F101" sqref="F101"/>
+      <selection pane="bottomLeft" activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,7 +1533,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>332.565</v>
+        <v>330.565</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3502,10 +3505,10 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B102" s="20"/>
+      <c r="A102" s="40"/>
+      <c r="B102" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
@@ -3514,14 +3517,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H102" s="39"/>
+      <c r="H102" s="39">
+        <v>2</v>
+      </c>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
+      <c r="K102" s="49" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3539,7 +3546,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3557,7 +3564,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3572,6 +3579,24 @@
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B106" s="20"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H106" s="39"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3744,7 +3769,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>474.18799999999999</v>
+        <v>472.18799999999999</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
